--- a/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T08:13:25+00:00</t>
+    <t>2023-03-06T08:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T08:14:15+00:00</t>
+    <t>2023-03-06T09:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T09:54:24+00:00</t>
+    <t>2023-03-06T09:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T09:55:26+00:00</t>
+    <t>2023-03-06T11:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:14:25+00:00</t>
+    <t>2023-03-06T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/update-emr-bundle_fig-74/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:09:07+00:00</t>
+    <t>2023-03-06T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
